--- a/main/ig/StructureDefinition-mesures-fr-observation-bodyheight.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bodyheight.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$106</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4056" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4094" uniqueCount="680">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T12:54:26+00:00</t>
+    <t>2024-09-18T08:16:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -674,6 +674,22 @@
   </si>
   <si>
     <t>Other resources *from the patient record* that may be relevant to the event.  The information from these resources was either used to create the instance or is provided to help with its interpretation.  This extension **should not** be used if more specific  inline elements  or extensions are available.  For example, use `Observation.hasMember`  instead of supportingInformation for  representing the members of an Observation panel.</t>
+  </si>
+  <si>
+    <t>Observation.extension:MesReasonForMeasurement</t>
+  </si>
+  <si>
+    <t>MesReasonForMeasurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/mesures/StructureDefinition/mesures-reason-for-measurement}
+</t>
+  </si>
+  <si>
+    <t>Motif de la mesure</t>
+  </si>
+  <si>
+    <t>Extension du Motif de la mesure, exprimé en texte libre  (ex. diabète, surpoids, maladie du cœur et des vaisseaux, cholestérol…).</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -2442,7 +2458,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP105"/>
+  <dimension ref="A1:AP106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2453,7 +2469,7 @@
   <cols>
     <col min="1" max="1" width="52.453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.3046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.42578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="27.03125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -4901,43 +4917,41 @@
         <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="D21" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>114</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>82</v>
       </c>
@@ -4985,7 +4999,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -5009,7 +5023,7 @@
         <v>82</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -5027,7 +5041,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -5040,23 +5054,25 @@
         <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O22" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -5105,7 +5121,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5117,22 +5133,22 @@
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -5140,14 +5156,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>226</v>
+        <v>82</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -5166,17 +5182,17 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -5225,7 +5241,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5240,19 +5256,19 @@
         <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>82</v>
+        <v>229</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -5260,14 +5276,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -5286,18 +5302,18 @@
         <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
@@ -5345,7 +5361,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5360,16 +5376,16 @@
         <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5380,46 +5396,44 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>247</v>
-      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>82</v>
       </c>
@@ -5443,11 +5457,13 @@
         <v>82</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>249</v>
+        <v>82</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>82</v>
@@ -5465,13 +5481,13 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>82</v>
@@ -5480,19 +5496,19 @@
         <v>105</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>251</v>
+        <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>82</v>
@@ -5500,10 +5516,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5514,31 +5530,31 @@
         <v>93</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>94</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>256</v>
+        <v>173</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5563,35 +5579,35 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AC26" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>82</v>
@@ -5600,19 +5616,19 @@
         <v>105</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>82</v>
+        <v>256</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>82</v>
+        <v>257</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>82</v>
@@ -5620,14 +5636,12 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>82</v>
       </c>
@@ -5636,7 +5650,7 @@
         <v>93</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>94</v>
@@ -5648,19 +5662,19 @@
         <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5688,28 +5702,26 @@
         <v>177</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5733,10 +5745,10 @@
         <v>82</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>82</v>
@@ -5744,24 +5756,26 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>82</v>
@@ -5770,16 +5784,20 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>108</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
       </c>
@@ -5803,13 +5821,13 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>82</v>
+        <v>266</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>82</v>
+        <v>267</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -5827,19 +5845,19 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>82</v>
@@ -5851,10 +5869,10 @@
         <v>82</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>111</v>
+        <v>269</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>82</v>
+        <v>270</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5862,21 +5880,21 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>82</v>
@@ -5888,17 +5906,15 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5935,31 +5951,31 @@
         <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>82</v>
@@ -5982,46 +5998,44 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>115</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>275</v>
+        <v>116</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
@@ -6057,19 +6071,19 @@
         <v>82</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>278</v>
+        <v>121</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -6081,7 +6095,7 @@
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>82</v>
@@ -6090,10 +6104,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>279</v>
+        <v>82</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>280</v>
+        <v>111</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -6104,10 +6118,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6115,31 +6129,35 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>108</v>
+        <v>279</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
       </c>
@@ -6187,19 +6205,19 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>110</v>
+        <v>283</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>82</v>
@@ -6208,10 +6226,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>111</v>
+        <v>285</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6222,21 +6240,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>82</v>
@@ -6248,17 +6266,15 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -6295,31 +6311,31 @@
         <v>82</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
@@ -6342,52 +6358,50 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>287</v>
+        <v>115</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>288</v>
+        <v>116</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>291</v>
+        <v>82</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>82</v>
@@ -6417,31 +6431,31 @@
         <v>82</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>292</v>
+        <v>121</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -6450,10 +6464,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>293</v>
+        <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>294</v>
+        <v>111</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6464,10 +6478,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6475,13 +6489,13 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
@@ -6490,24 +6504,26 @@
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>82</v>
+        <v>296</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>82</v>
@@ -6549,7 +6565,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6570,10 +6586,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6584,10 +6600,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6595,13 +6611,13 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>82</v>
@@ -6610,24 +6626,24 @@
         <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>82</v>
@@ -6669,7 +6685,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6690,10 +6706,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6704,10 +6720,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6715,13 +6731,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -6730,24 +6746,24 @@
         <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>82</v>
+        <v>313</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -6789,7 +6805,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6810,10 +6826,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6824,10 +6840,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6850,19 +6866,17 @@
         <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>322</v>
+        <v>107</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6911,7 +6925,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6932,10 +6946,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6946,10 +6960,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6972,19 +6986,19 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>107</v>
+        <v>327</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -7033,7 +7047,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -7054,10 +7068,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -7068,24 +7082,24 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>340</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>82</v>
@@ -7094,19 +7108,19 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>256</v>
+        <v>107</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7131,13 +7145,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>345</v>
+        <v>82</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>346</v>
+        <v>82</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -7155,10 +7169,10 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>93</v>
@@ -7170,62 +7184,66 @@
         <v>105</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>347</v>
+        <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>351</v>
+        <v>82</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>352</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>82</v>
+        <v>345</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>108</v>
+        <v>346</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
       </c>
@@ -7249,13 +7267,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>82</v>
+        <v>350</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>82</v>
+        <v>351</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -7273,10 +7291,10 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>110</v>
+        <v>344</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>93</v>
@@ -7285,44 +7303,44 @@
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>82</v>
+        <v>352</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>82</v>
+        <v>353</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>82</v>
+        <v>354</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>111</v>
+        <v>355</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>82</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -7334,17 +7352,15 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7381,31 +7397,31 @@
         <v>82</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>82</v>
@@ -7428,18 +7444,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>81</v>
@@ -7451,23 +7467,21 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>274</v>
+        <v>115</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>275</v>
+        <v>116</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>82</v>
       </c>
@@ -7503,9 +7517,11 @@
         <v>82</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AC42" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="AD42" t="s" s="2">
         <v>82</v>
       </c>
@@ -7513,7 +7529,7 @@
         <v>120</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>278</v>
+        <v>121</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7525,7 +7541,7 @@
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
@@ -7534,10 +7550,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>279</v>
+        <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>280</v>
+        <v>111</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7548,14 +7564,12 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
         <v>82</v>
       </c>
@@ -7564,7 +7578,7 @@
         <v>93</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -7579,16 +7593,16 @@
         <v>151</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7625,19 +7639,17 @@
         <v>82</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="AC43" s="2"/>
       <c r="AD43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7658,10 +7670,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7672,18 +7684,20 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="D44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>93</v>
@@ -7695,19 +7709,23 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>108</v>
+        <v>279</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7755,19 +7773,19 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>110</v>
+        <v>283</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
@@ -7776,10 +7794,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>111</v>
+        <v>285</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7790,21 +7808,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7816,17 +7834,15 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7863,31 +7879,31 @@
         <v>82</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7910,21 +7926,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7933,29 +7949,27 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>287</v>
+        <v>115</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>288</v>
+        <v>116</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>365</v>
+        <v>82</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>82</v>
@@ -7985,31 +7999,31 @@
         <v>82</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>292</v>
+        <v>121</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -8018,10 +8032,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>293</v>
+        <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>294</v>
+        <v>111</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -8032,10 +8046,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8043,7 +8057,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>93</v>
@@ -8058,24 +8072,26 @@
         <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>82</v>
@@ -8117,7 +8133,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8138,10 +8154,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8152,10 +8168,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8163,7 +8179,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>93</v>
@@ -8178,24 +8194,24 @@
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>82</v>
@@ -8237,7 +8253,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8258,10 +8274,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8272,10 +8288,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8283,7 +8299,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>93</v>
@@ -8298,24 +8314,24 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>82</v>
@@ -8357,7 +8373,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8378,10 +8394,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8392,10 +8408,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8418,19 +8434,17 @@
         <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>322</v>
+        <v>107</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8479,7 +8493,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8500,10 +8514,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8514,10 +8528,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8540,19 +8554,19 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>107</v>
+        <v>327</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8601,7 +8615,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8622,10 +8636,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8636,10 +8650,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8647,13 +8661,13 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>82</v>
@@ -8662,19 +8676,19 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>377</v>
+        <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>378</v>
+        <v>337</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>379</v>
+        <v>338</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>381</v>
+        <v>340</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8723,7 +8737,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8738,19 +8752,19 @@
         <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>382</v>
+        <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>383</v>
+        <v>342</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>384</v>
+        <v>343</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>385</v>
+        <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8758,10 +8772,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8769,13 +8783,13 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>82</v>
@@ -8784,18 +8798,20 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
       </c>
@@ -8843,13 +8859,13 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>82</v>
@@ -8858,19 +8874,19 @@
         <v>105</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>82</v>
@@ -8878,21 +8894,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>393</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>82</v>
@@ -8904,20 +8920,18 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>398</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>82</v>
       </c>
@@ -8965,13 +8979,13 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
@@ -8980,19 +8994,19 @@
         <v>105</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>399</v>
+        <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>82</v>
@@ -9000,24 +9014,24 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -9026,19 +9040,19 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -9087,7 +9101,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9096,25 +9110,25 @@
         <v>93</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>410</v>
+        <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>411</v>
+        <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>82</v>
@@ -9122,24 +9136,24 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>82</v>
+        <v>409</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>82</v>
@@ -9148,18 +9162,20 @@
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>129</v>
+        <v>410</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
       </c>
@@ -9207,7 +9223,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9216,25 +9232,25 @@
         <v>93</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>82</v>
+        <v>415</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>105</v>
+        <v>416</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>82</v>
+        <v>417</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AO56" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>82</v>
@@ -9242,10 +9258,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9256,7 +9272,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>82</v>
@@ -9268,18 +9284,18 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>427</v>
-      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>82</v>
       </c>
@@ -9327,13 +9343,13 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>82</v>
@@ -9342,19 +9358,19 @@
         <v>105</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>428</v>
+        <v>82</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>82</v>
@@ -9362,10 +9378,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9376,10 +9392,10 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9388,19 +9404,17 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9437,59 +9451,59 @@
         <v>82</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AC58" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>438</v>
+        <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>439</v>
+        <v>82</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>82</v>
+        <v>433</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>440</v>
+        <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>82</v>
+        <v>436</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>443</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9510,19 +9524,19 @@
         <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9532,7 +9546,7 @@
         <v>82</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>446</v>
+        <v>82</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>82</v>
@@ -9559,19 +9573,17 @@
         <v>82</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9580,7 +9592,7 @@
         <v>93</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>105</v>
@@ -9589,29 +9601,31 @@
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9623,25 +9637,29 @@
         <v>93</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>107</v>
+        <v>438</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>108</v>
+        <v>439</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9650,7 +9668,7 @@
         <v>82</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>82</v>
+        <v>451</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>82</v>
@@ -9689,7 +9707,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>110</v>
+        <v>437</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9698,47 +9716,47 @@
         <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>82</v>
+        <v>444</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>82</v>
+        <v>445</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>82</v>
+        <v>446</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>111</v>
+        <v>447</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>82</v>
+        <v>448</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9750,17 +9768,15 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9797,31 +9813,31 @@
         <v>82</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>82</v>
@@ -9844,46 +9860,44 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>453</v>
+        <v>114</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>454</v>
+        <v>115</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>455</v>
+        <v>116</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>82</v>
       </c>
@@ -9919,31 +9933,31 @@
         <v>82</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>458</v>
+        <v>121</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>82</v>
@@ -9952,10 +9966,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>459</v>
+        <v>82</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>460</v>
+        <v>111</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9966,10 +9980,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9977,83 +9991,83 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>173</v>
+        <v>458</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF63" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q63" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10074,10 +10088,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10088,10 +10102,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10099,37 +10113,39 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I64" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="R64" t="s" s="2">
         <v>82</v>
       </c>
@@ -10149,13 +10165,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>82</v>
+        <v>472</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>82</v>
+        <v>473</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -10173,7 +10189,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10194,10 +10210,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10208,10 +10224,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10234,24 +10250,24 @@
         <v>94</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
-        <v>485</v>
+        <v>82</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>82</v>
@@ -10293,7 +10309,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10302,7 +10318,7 @@
         <v>93</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>487</v>
+        <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>105</v>
@@ -10314,10 +10330,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10328,10 +10344,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10354,26 +10370,24 @@
         <v>94</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>82</v>
+        <v>490</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>82</v>
@@ -10391,13 +10405,13 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>248</v>
+        <v>82</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>494</v>
+        <v>82</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>495</v>
+        <v>82</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10415,7 +10429,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10424,7 +10438,7 @@
         <v>93</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>82</v>
+        <v>492</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>105</v>
@@ -10436,10 +10450,10 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10450,10 +10464,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10461,7 +10475,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>93</v>
@@ -10473,22 +10487,22 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>256</v>
+        <v>173</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10513,13 +10527,13 @@
         <v>82</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>155</v>
+        <v>253</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>82</v>
@@ -10537,7 +10551,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10546,7 +10560,7 @@
         <v>93</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>505</v>
+        <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>105</v>
@@ -10558,10 +10572,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>196</v>
+        <v>483</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10572,10 +10586,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10589,7 +10603,7 @@
         <v>93</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>82</v>
@@ -10598,16 +10612,20 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>108</v>
+        <v>504</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10631,13 +10649,13 @@
         <v>82</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>82</v>
+        <v>508</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>82</v>
+        <v>509</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>82</v>
@@ -10655,7 +10673,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>110</v>
+        <v>503</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10664,10 +10682,10 @@
         <v>93</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>82</v>
+        <v>510</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>82</v>
@@ -10676,10 +10694,10 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>111</v>
+        <v>511</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10690,21 +10708,21 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -10716,17 +10734,15 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10763,31 +10779,31 @@
         <v>82</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -10799,7 +10815,7 @@
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10810,14 +10826,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10833,23 +10849,21 @@
         <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>274</v>
+        <v>115</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>275</v>
+        <v>116</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
@@ -10885,19 +10899,19 @@
         <v>82</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>278</v>
+        <v>121</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10909,7 +10923,7 @@
         <v>205</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>82</v>
@@ -10918,10 +10932,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>279</v>
+        <v>82</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>280</v>
+        <v>196</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10932,10 +10946,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10946,7 +10960,7 @@
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
@@ -10955,19 +10969,23 @@
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>108</v>
+        <v>279</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
       </c>
@@ -11015,19 +11033,19 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>110</v>
+        <v>283</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>82</v>
@@ -11036,10 +11054,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>111</v>
+        <v>285</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -11050,21 +11068,21 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -11076,17 +11094,15 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -11123,31 +11139,31 @@
         <v>82</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
@@ -11159,7 +11175,7 @@
         <v>82</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11170,21 +11186,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
@@ -11193,23 +11209,21 @@
         <v>82</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>287</v>
+        <v>115</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>288</v>
+        <v>116</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>82</v>
       </c>
@@ -11245,31 +11259,31 @@
         <v>82</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>292</v>
+        <v>121</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>205</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
@@ -11278,10 +11292,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>293</v>
+        <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>294</v>
+        <v>196</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11292,10 +11306,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11303,7 +11317,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>93</v>
@@ -11318,18 +11332,20 @@
         <v>94</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
       </c>
@@ -11377,7 +11393,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11398,10 +11414,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11412,10 +11428,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11423,7 +11439,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>93</v>
@@ -11438,20 +11454,18 @@
         <v>94</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>82</v>
       </c>
@@ -11499,7 +11513,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11520,10 +11534,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11534,10 +11548,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11545,7 +11559,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>93</v>
@@ -11560,19 +11574,19 @@
         <v>94</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11621,7 +11635,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11642,10 +11656,10 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
@@ -11656,10 +11670,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11682,19 +11696,19 @@
         <v>94</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>322</v>
+        <v>107</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>325</v>
+        <v>520</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
@@ -11743,7 +11757,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11764,10 +11778,10 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11778,10 +11792,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11804,19 +11818,19 @@
         <v>94</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>107</v>
+        <v>327</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11865,7 +11879,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11886,10 +11900,10 @@
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11900,21 +11914,21 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>520</v>
+        <v>82</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>82</v>
@@ -11923,22 +11937,22 @@
         <v>82</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>256</v>
+        <v>107</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>521</v>
+        <v>337</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>522</v>
+        <v>338</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>523</v>
+        <v>339</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>524</v>
+        <v>340</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11963,11 +11977,13 @@
         <v>82</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y79" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z79" t="s" s="2">
-        <v>525</v>
+        <v>82</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11985,16 +12001,16 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>519</v>
+        <v>341</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>105</v>
@@ -12003,31 +12019,31 @@
         <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>526</v>
+        <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>527</v>
+        <v>342</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>528</v>
+        <v>343</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>529</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>82</v>
+        <v>525</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -12046,19 +12062,19 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>531</v>
+        <v>261</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -12083,13 +12099,11 @@
         <v>82</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>82</v>
+        <v>530</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -12107,7 +12121,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12125,27 +12139,27 @@
         <v>82</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>82</v>
+        <v>531</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>82</v>
+        <v>534</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12156,7 +12170,7 @@
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -12168,18 +12182,20 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>256</v>
+        <v>536</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N81" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="O81" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="N81" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>82</v>
       </c>
@@ -12203,13 +12219,13 @@
         <v>82</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>542</v>
+        <v>82</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>543</v>
+        <v>82</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>82</v>
@@ -12227,13 +12243,13 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>82</v>
@@ -12245,27 +12261,27 @@
         <v>82</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>544</v>
+        <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>547</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12279,7 +12295,7 @@
         <v>93</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>82</v>
@@ -12288,20 +12304,18 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
@@ -12325,11 +12339,13 @@
         <v>82</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y82" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="Z82" t="s" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
@@ -12347,7 +12363,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12365,27 +12381,27 @@
         <v>82</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>82</v>
+        <v>549</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>82</v>
+        <v>552</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12399,7 +12415,7 @@
         <v>93</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>82</v>
@@ -12408,18 +12424,20 @@
         <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="O83" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="L83" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>82</v>
       </c>
@@ -12443,13 +12461,11 @@
         <v>82</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>82</v>
+        <v>558</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>82</v>
@@ -12467,7 +12483,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12485,27 +12501,27 @@
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>561</v>
+        <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>564</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12519,7 +12535,7 @@
         <v>93</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>82</v>
@@ -12528,16 +12544,16 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12587,7 +12603,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12605,27 +12621,27 @@
         <v>82</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12636,10 +12652,10 @@
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>82</v>
@@ -12648,20 +12664,18 @@
         <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>579</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>82</v>
       </c>
@@ -12709,45 +12723,45 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>580</v>
+        <v>105</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>82</v>
+        <v>578</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12758,7 +12772,7 @@
         <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>82</v>
@@ -12770,16 +12784,20 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>107</v>
+        <v>580</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>108</v>
+        <v>581</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
       </c>
@@ -12827,19 +12845,19 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>110</v>
+        <v>579</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>82</v>
+        <v>585</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>82</v>
@@ -12848,10 +12866,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>82</v>
+        <v>586</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>111</v>
+        <v>587</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12862,21 +12880,21 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>82</v>
@@ -12888,17 +12906,15 @@
         <v>82</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12947,19 +12963,19 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>82</v>
@@ -12982,14 +12998,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>586</v>
+        <v>113</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -13002,26 +13018,24 @@
         <v>82</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>114</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>587</v>
+        <v>115</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>588</v>
+        <v>116</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="O88" t="s" s="2">
-        <v>214</v>
-      </c>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>82</v>
       </c>
@@ -13069,7 +13083,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>589</v>
+        <v>121</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13093,7 +13107,7 @@
         <v>82</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
@@ -13111,26 +13125,26 @@
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>82</v>
+        <v>591</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>591</v>
+        <v>114</v>
       </c>
       <c r="L89" t="s" s="2">
         <v>592</v>
@@ -13138,8 +13152,12 @@
       <c r="M89" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
+      <c r="N89" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
@@ -13187,19 +13205,19 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>594</v>
+        <v>82</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>82</v>
@@ -13208,10 +13226,10 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>595</v>
+        <v>82</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>596</v>
+        <v>196</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
@@ -13222,10 +13240,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13248,13 +13266,13 @@
         <v>82</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -13305,7 +13323,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13314,7 +13332,7 @@
         <v>93</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>105</v>
@@ -13326,10 +13344,10 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13340,10 +13358,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13366,20 +13384,16 @@
         <v>82</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>256</v>
+        <v>596</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="N91" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="O91" t="s" s="2">
-        <v>605</v>
-      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>82</v>
       </c>
@@ -13403,13 +13417,13 @@
         <v>82</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>606</v>
+        <v>82</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>607</v>
+        <v>82</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13427,7 +13441,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13436,7 +13450,7 @@
         <v>93</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>82</v>
+        <v>599</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>105</v>
@@ -13445,13 +13459,13 @@
         <v>82</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>608</v>
+        <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>528</v>
+        <v>605</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13462,10 +13476,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13476,7 +13490,7 @@
         <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>82</v>
@@ -13488,19 +13502,19 @@
         <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13525,13 +13539,13 @@
         <v>82</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -13549,13 +13563,13 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>82</v>
@@ -13567,13 +13581,13 @@
         <v>82</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
@@ -13584,10 +13598,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13598,7 +13612,7 @@
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>82</v>
@@ -13610,17 +13624,19 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="N93" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="O93" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13645,13 +13661,13 @@
         <v>82</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>82</v>
+        <v>620</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>82</v>
+        <v>621</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>82</v>
@@ -13669,13 +13685,13 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>82</v>
@@ -13687,13 +13703,13 @@
         <v>82</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>82</v>
+        <v>613</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>82</v>
+        <v>614</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>622</v>
+        <v>533</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
@@ -13704,10 +13720,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13730,7 +13746,7 @@
         <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>107</v>
+        <v>623</v>
       </c>
       <c r="L94" t="s" s="2">
         <v>624</v>
@@ -13739,7 +13755,9 @@
         <v>625</v>
       </c>
       <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>626</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
@@ -13787,7 +13805,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13808,10 +13826,10 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>595</v>
+        <v>82</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -13822,10 +13840,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13836,7 +13854,7 @@
         <v>80</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>82</v>
@@ -13845,10 +13863,10 @@
         <v>82</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>628</v>
+        <v>107</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>629</v>
@@ -13856,9 +13874,7 @@
       <c r="M95" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="N95" t="s" s="2">
-        <v>631</v>
-      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13907,13 +13923,13 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>82</v>
@@ -13928,10 +13944,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>632</v>
+        <v>600</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -13942,10 +13958,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13968,16 +13984,16 @@
         <v>94</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>638</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -14027,7 +14043,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14048,10 +14064,10 @@
         <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -14062,10 +14078,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14079,7 +14095,7 @@
         <v>81</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>82</v>
@@ -14088,20 +14104,18 @@
         <v>94</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="L97" t="s" s="2">
         <v>641</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="O97" t="s" s="2">
         <v>643</v>
       </c>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>82</v>
       </c>
@@ -14149,7 +14163,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14161,19 +14175,19 @@
         <v>82</v>
       </c>
       <c r="AJ97" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14184,10 +14198,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14198,28 +14212,32 @@
         <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>107</v>
+        <v>580</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>108</v>
+        <v>646</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
+        <v>646</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>648</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
       </c>
@@ -14267,19 +14285,19 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>110</v>
+        <v>645</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>82</v>
+        <v>649</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>82</v>
@@ -14288,10 +14306,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>82</v>
+        <v>650</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>111</v>
+        <v>651</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14302,21 +14320,21 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>82</v>
@@ -14328,17 +14346,15 @@
         <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14387,19 +14403,19 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>82</v>
@@ -14422,14 +14438,14 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>586</v>
+        <v>113</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -14442,26 +14458,24 @@
         <v>82</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>114</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>587</v>
+        <v>115</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>588</v>
+        <v>116</v>
       </c>
       <c r="N100" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="O100" t="s" s="2">
-        <v>214</v>
-      </c>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>82</v>
       </c>
@@ -14509,7 +14523,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>589</v>
+        <v>121</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14533,7 +14547,7 @@
         <v>82</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14544,45 +14558,45 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>82</v>
+        <v>591</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I101" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="J101" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>256</v>
+        <v>114</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>651</v>
+        <v>592</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>652</v>
+        <v>593</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>653</v>
+        <v>117</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>654</v>
+        <v>219</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
@@ -14607,13 +14621,13 @@
         <v>82</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>345</v>
+        <v>82</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>346</v>
+        <v>82</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>82</v>
@@ -14631,34 +14645,34 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>650</v>
+        <v>594</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>655</v>
+        <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>349</v>
+        <v>82</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>350</v>
+        <v>196</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>351</v>
+        <v>82</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>82</v>
@@ -14666,10 +14680,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14677,7 +14691,7 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>93</v>
@@ -14692,19 +14706,19 @@
         <v>94</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14729,13 +14743,13 @@
         <v>82</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>248</v>
+        <v>155</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>661</v>
+        <v>350</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>662</v>
+        <v>351</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>82</v>
@@ -14753,16 +14767,16 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>663</v>
+        <v>82</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>105</v>
@@ -14771,27 +14785,27 @@
         <v>82</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>441</v>
+        <v>354</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>442</v>
+        <v>355</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>443</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14811,22 +14825,22 @@
         <v>82</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>256</v>
+        <v>662</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>502</v>
+        <v>441</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14851,13 +14865,13 @@
         <v>82</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>155</v>
+        <v>253</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>503</v>
+        <v>666</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>504</v>
+        <v>667</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>82</v>
@@ -14875,7 +14889,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14884,7 +14898,7 @@
         <v>93</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>105</v>
@@ -14893,19 +14907,19 @@
         <v>82</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>82</v>
+        <v>669</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>196</v>
+        <v>446</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>506</v>
+        <v>447</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP103" t="s" s="2">
-        <v>82</v>
+        <v>448</v>
       </c>
     </row>
     <row r="104" hidden="true">
@@ -14917,17 +14931,17 @@
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>520</v>
+        <v>82</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>82</v>
@@ -14936,19 +14950,19 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>521</v>
+        <v>671</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>522</v>
+        <v>672</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>523</v>
+        <v>673</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -14976,10 +14990,10 @@
         <v>155</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>671</v>
+        <v>508</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>82</v>
@@ -15003,10 +15017,10 @@
         <v>80</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>82</v>
+        <v>674</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>105</v>
@@ -15015,31 +15029,31 @@
         <v>82</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>526</v>
+        <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>527</v>
+        <v>196</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP104" t="s" s="2">
-        <v>529</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>82</v>
+        <v>525</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -15058,19 +15072,19 @@
         <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>83</v>
+        <v>261</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>673</v>
+        <v>526</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>674</v>
+        <v>527</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>578</v>
+        <v>528</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>579</v>
+        <v>529</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15095,13 +15109,13 @@
         <v>82</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>82</v>
+        <v>676</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>82</v>
+        <v>530</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>82</v>
@@ -15119,7 +15133,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15137,23 +15151,145 @@
         <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>82</v>
+        <v>531</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>581</v>
+        <v>532</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>582</v>
+        <v>533</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP105" t="s" s="2">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="P106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP106" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP105">
+  <autoFilter ref="A1:AP106">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15163,7 +15299,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI104">
+  <conditionalFormatting sqref="A2:AI105">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/main/ig/StructureDefinition-mesures-fr-observation-bodyheight.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bodyheight.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4094" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4092" uniqueCount="679">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0-ballot</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T08:16:45+00:00</t>
+    <t>2024-10-02T08:33:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1634,9 +1634,6 @@
     <t>Observation.dataAbsentReason.coding.code</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Observation.dataAbsentReason.coding.display</t>
   </si>
   <si>
@@ -1795,7 +1792,7 @@
 </t>
   </si>
   <si>
-    <t>Dispositif utilisé pour l'observation
+    <t>Dispositif utilisé pour récolter l'information. Ce dispositif peut être l'application permettant de renseigner la valeur. 
 Si la mesure a été faite par un objet connecté (Profil PhdDevice), cette référence est obligatoire</t>
   </si>
   <si>
@@ -10920,7 +10917,7 @@
         <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>122</v>
@@ -10935,7 +10932,7 @@
         <v>82</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -11042,7 +11039,7 @@
         <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>105</v>
@@ -11280,7 +11277,7 @@
         <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>122</v>
@@ -11295,7 +11292,7 @@
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11402,7 +11399,7 @@
         <v>93</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>105</v>
@@ -11522,7 +11519,7 @@
         <v>93</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>105</v>
@@ -11582,9 +11579,7 @@
       <c r="M76" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="N76" t="s" s="2">
-        <v>520</v>
-      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>312</v>
       </c>
@@ -11644,7 +11639,7 @@
         <v>93</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>105</v>
@@ -11670,10 +11665,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11704,9 +11699,7 @@
       <c r="M77" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="N77" t="s" s="2">
-        <v>520</v>
-      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>321</v>
       </c>
@@ -11766,7 +11759,7 @@
         <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>105</v>
@@ -11792,10 +11785,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11888,7 +11881,7 @@
         <v>93</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>105</v>
@@ -11914,10 +11907,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12010,7 +12003,7 @@
         <v>93</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>105</v>
@@ -12036,14 +12029,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -12065,16 +12058,16 @@
         <v>261</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="N80" t="s" s="2">
+      <c r="O80" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -12103,7 +12096,7 @@
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -12121,7 +12114,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12139,27 +12132,27 @@
         <v>82</v>
       </c>
       <c r="AL80" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="AM80" t="s" s="2">
+      <c r="AN80" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="AN80" t="s" s="2">
+      <c r="AO80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP80" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP80" t="s" s="2">
-        <v>534</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12182,19 +12175,19 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="N81" t="s" s="2">
+      <c r="O81" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12243,7 +12236,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12264,10 +12257,10 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12278,10 +12271,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12307,13 +12300,13 @@
         <v>261</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12342,11 +12335,11 @@
         <v>163</v>
       </c>
       <c r="Y82" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="Z82" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="Z82" t="s" s="2">
-        <v>548</v>
-      </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
       </c>
@@ -12363,7 +12356,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12381,27 +12374,27 @@
         <v>82</v>
       </c>
       <c r="AL82" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="AM82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="AN82" t="s" s="2">
+      <c r="AO82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP82" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP82" t="s" s="2">
-        <v>552</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12427,16 +12420,16 @@
         <v>261</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="N83" t="s" s="2">
+      <c r="O83" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12465,7 +12458,7 @@
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>82</v>
@@ -12483,7 +12476,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12504,10 +12497,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12518,10 +12511,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12544,16 +12537,16 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12603,7 +12596,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12621,27 +12614,27 @@
         <v>82</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="AM84" t="s" s="2">
+      <c r="AN84" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="AN84" t="s" s="2">
+      <c r="AO84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP84" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP84" t="s" s="2">
-        <v>569</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12664,16 +12657,16 @@
         <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12723,7 +12716,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12741,27 +12734,27 @@
         <v>82</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="AM85" t="s" s="2">
+      <c r="AN85" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="AN85" t="s" s="2">
+      <c r="AO85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP85" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP85" t="s" s="2">
-        <v>578</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12784,19 +12777,19 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12845,7 +12838,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12857,19 +12850,19 @@
         <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM86" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="AK86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM86" t="s" s="2">
+      <c r="AN86" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12880,10 +12873,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12998,10 +12991,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13118,14 +13111,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -13147,10 +13140,10 @@
         <v>114</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="N89" t="s" s="2">
         <v>117</v>
@@ -13205,7 +13198,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13240,10 +13233,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13266,13 +13259,13 @@
         <v>82</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -13323,7 +13316,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13332,7 +13325,7 @@
         <v>93</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>105</v>
@@ -13344,10 +13337,10 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13358,10 +13351,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13384,13 +13377,13 @@
         <v>82</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -13441,7 +13434,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13450,7 +13443,7 @@
         <v>93</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>105</v>
@@ -13462,10 +13455,10 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13476,10 +13469,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13505,16 +13498,16 @@
         <v>261</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="N92" t="s" s="2">
+      <c r="O92" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13542,11 +13535,11 @@
         <v>177</v>
       </c>
       <c r="Y92" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="Z92" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="Z92" t="s" s="2">
-        <v>612</v>
-      </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
       </c>
@@ -13563,7 +13556,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13581,13 +13574,13 @@
         <v>82</v>
       </c>
       <c r="AL92" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="AM92" t="s" s="2">
-        <v>614</v>
-      </c>
       <c r="AN92" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
@@ -13598,10 +13591,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13627,16 +13620,16 @@
         <v>261</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="N93" t="s" s="2">
+      <c r="O93" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13664,11 +13657,11 @@
         <v>163</v>
       </c>
       <c r="Y93" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="Z93" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="Z93" t="s" s="2">
-        <v>621</v>
-      </c>
       <c r="AA93" t="s" s="2">
         <v>82</v>
       </c>
@@ -13685,7 +13678,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13703,13 +13696,13 @@
         <v>82</v>
       </c>
       <c r="AL93" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="AM93" t="s" s="2">
-        <v>614</v>
-      </c>
       <c r="AN93" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
@@ -13720,10 +13713,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13746,17 +13739,17 @@
         <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13805,7 +13798,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13829,7 +13822,7 @@
         <v>82</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -13840,10 +13833,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13869,10 +13862,10 @@
         <v>107</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>630</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13923,7 +13916,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13944,10 +13937,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -13958,10 +13951,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13984,16 +13977,16 @@
         <v>94</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -14043,7 +14036,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14064,10 +14057,10 @@
         <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AN96" t="s" s="2">
         <v>637</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>638</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -14078,10 +14071,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14104,16 +14097,16 @@
         <v>94</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -14163,7 +14156,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14184,10 +14177,10 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14198,10 +14191,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14224,19 +14217,19 @@
         <v>94</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="N98" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="M98" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>647</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>648</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14285,7 +14278,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14297,19 +14290,19 @@
         <v>82</v>
       </c>
       <c r="AJ98" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM98" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="AK98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM98" t="s" s="2">
+      <c r="AN98" t="s" s="2">
         <v>650</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>651</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14320,10 +14313,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14438,10 +14431,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14558,14 +14551,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14587,10 +14580,10 @@
         <v>114</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="N101" t="s" s="2">
         <v>117</v>
@@ -14645,7 +14638,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14680,10 +14673,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14709,16 +14702,16 @@
         <v>261</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14767,7 +14760,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>93</v>
@@ -14785,7 +14778,7 @@
         <v>82</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>354</v>
@@ -14802,10 +14795,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14828,16 +14821,16 @@
         <v>94</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>441</v>
@@ -14868,11 +14861,11 @@
         <v>253</v>
       </c>
       <c r="Y103" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="Z103" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="Z103" t="s" s="2">
-        <v>667</v>
-      </c>
       <c r="AA103" t="s" s="2">
         <v>82</v>
       </c>
@@ -14889,7 +14882,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14898,7 +14891,7 @@
         <v>93</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>105</v>
@@ -14907,7 +14900,7 @@
         <v>82</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>446</v>
@@ -14924,10 +14917,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14953,13 +14946,13 @@
         <v>261</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>672</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>673</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>507</v>
@@ -15011,7 +15004,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15020,7 +15013,7 @@
         <v>93</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>105</v>
@@ -15046,14 +15039,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -15075,16 +15068,16 @@
         <v>261</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="N105" t="s" s="2">
+      <c r="O105" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15112,10 +15105,10 @@
         <v>155</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>82</v>
@@ -15133,7 +15126,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15151,27 +15144,27 @@
         <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AM105" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="AM105" t="s" s="2">
+      <c r="AN105" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="AN105" t="s" s="2">
+      <c r="AO105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP105" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="AO105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP105" t="s" s="2">
-        <v>534</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15197,16 +15190,16 @@
         <v>83</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="M106" t="s" s="2">
-        <v>679</v>
-      </c>
       <c r="N106" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="O106" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15255,7 +15248,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15276,10 +15269,10 @@
         <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AN106" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>

--- a/main/ig/StructureDefinition-mesures-fr-observation-bodyheight.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bodyheight.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4092" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4094" uniqueCount="680">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T08:33:33+00:00</t>
+    <t>2024-10-02T08:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1632,6 +1632,9 @@
   </si>
   <si>
     <t>Observation.dataAbsentReason.coding.code</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason.coding.display</t>
@@ -10917,7 +10920,7 @@
         <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>122</v>
@@ -10932,7 +10935,7 @@
         <v>82</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -11039,7 +11042,7 @@
         <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>105</v>
@@ -11277,7 +11280,7 @@
         <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>122</v>
@@ -11292,7 +11295,7 @@
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11399,7 +11402,7 @@
         <v>93</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>105</v>
@@ -11519,7 +11522,7 @@
         <v>93</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>105</v>
@@ -11579,7 +11582,9 @@
       <c r="M76" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="N76" s="2"/>
+      <c r="N76" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>312</v>
       </c>
@@ -11639,7 +11644,7 @@
         <v>93</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>105</v>
@@ -11665,10 +11670,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11699,7 +11704,9 @@
       <c r="M77" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="N77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>321</v>
       </c>
@@ -11759,7 +11766,7 @@
         <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>105</v>
@@ -11785,10 +11792,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11881,7 +11888,7 @@
         <v>93</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>105</v>
@@ -11907,10 +11914,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12003,7 +12010,7 @@
         <v>93</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>105</v>
@@ -12029,14 +12036,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -12058,16 +12065,16 @@
         <v>261</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -12096,7 +12103,7 @@
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -12114,7 +12121,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12132,27 +12139,27 @@
         <v>82</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12175,19 +12182,19 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12236,7 +12243,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12257,10 +12264,10 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12271,10 +12278,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12300,13 +12307,13 @@
         <v>261</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12335,10 +12342,10 @@
         <v>163</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
@@ -12356,7 +12363,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12374,27 +12381,27 @@
         <v>82</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12420,16 +12427,16 @@
         <v>261</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12458,7 +12465,7 @@
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>82</v>
@@ -12476,7 +12483,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12497,10 +12504,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12511,10 +12518,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12537,16 +12544,16 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12596,7 +12603,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12614,27 +12621,27 @@
         <v>82</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12657,16 +12664,16 @@
         <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12716,7 +12723,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12734,27 +12741,27 @@
         <v>82</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12777,19 +12784,19 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12838,7 +12845,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12850,7 +12857,7 @@
         <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>82</v>
@@ -12859,10 +12866,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12873,10 +12880,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12991,10 +12998,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13111,14 +13118,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -13140,10 +13147,10 @@
         <v>114</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N89" t="s" s="2">
         <v>117</v>
@@ -13198,7 +13205,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13233,10 +13240,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13259,13 +13266,13 @@
         <v>82</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -13316,7 +13323,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13325,7 +13332,7 @@
         <v>93</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>105</v>
@@ -13337,10 +13344,10 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13351,10 +13358,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13377,13 +13384,13 @@
         <v>82</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -13434,7 +13441,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13443,7 +13450,7 @@
         <v>93</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>105</v>
@@ -13455,10 +13462,10 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13469,10 +13476,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13498,16 +13505,16 @@
         <v>261</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13535,10 +13542,10 @@
         <v>177</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -13556,7 +13563,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13574,13 +13581,13 @@
         <v>82</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
@@ -13591,10 +13598,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13620,16 +13627,16 @@
         <v>261</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13657,10 +13664,10 @@
         <v>163</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>82</v>
@@ -13678,7 +13685,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13696,13 +13703,13 @@
         <v>82</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
@@ -13713,10 +13720,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13739,17 +13746,17 @@
         <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13798,7 +13805,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13822,7 +13829,7 @@
         <v>82</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -13833,10 +13840,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13862,10 +13869,10 @@
         <v>107</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13916,7 +13923,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13937,10 +13944,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -13951,10 +13958,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13977,16 +13984,16 @@
         <v>94</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -14036,7 +14043,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14057,10 +14064,10 @@
         <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -14071,10 +14078,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14097,16 +14104,16 @@
         <v>94</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -14156,7 +14163,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14177,10 +14184,10 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14191,10 +14198,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14217,19 +14224,19 @@
         <v>94</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14278,7 +14285,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14290,7 +14297,7 @@
         <v>82</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>82</v>
@@ -14299,10 +14306,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14313,10 +14320,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14431,10 +14438,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14551,14 +14558,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14580,10 +14587,10 @@
         <v>114</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N101" t="s" s="2">
         <v>117</v>
@@ -14638,7 +14645,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14673,10 +14680,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14702,16 +14709,16 @@
         <v>261</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14760,7 +14767,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>93</v>
@@ -14778,7 +14785,7 @@
         <v>82</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>354</v>
@@ -14795,10 +14802,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14821,16 +14828,16 @@
         <v>94</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>441</v>
@@ -14861,10 +14868,10 @@
         <v>253</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>82</v>
@@ -14882,7 +14889,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14891,7 +14898,7 @@
         <v>93</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>105</v>
@@ -14900,7 +14907,7 @@
         <v>82</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>446</v>
@@ -14917,10 +14924,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14946,13 +14953,13 @@
         <v>261</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>507</v>
@@ -15004,7 +15011,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15013,7 +15020,7 @@
         <v>93</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>105</v>
@@ -15039,14 +15046,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -15068,16 +15075,16 @@
         <v>261</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15105,28 +15112,28 @@
         <v>155</v>
       </c>
       <c r="Y105" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF105" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>674</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15144,27 +15151,27 @@
         <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP105" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15190,16 +15197,16 @@
         <v>83</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15248,7 +15255,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15269,10 +15276,10 @@
         <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>

--- a/main/ig/StructureDefinition-mesures-fr-observation-bodyheight.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bodyheight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T08:34:04+00:00</t>
+    <t>2024-10-30T13:35:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-bodyheight.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bodyheight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:35:51+00:00</t>
+    <t>2024-11-18T15:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-bodyheight.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bodyheight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T15:35:30+00:00</t>
+    <t>2024-12-11T16:06:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-bodyheight.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bodyheight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:06:25+00:00</t>
+    <t>2024-12-11T16:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-bodyheight.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bodyheight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:37:39+00:00</t>
+    <t>2024-12-13T13:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-bodyheight.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bodyheight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:36:55+00:00</t>
+    <t>2024-12-13T15:58:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-bodyheight.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bodyheight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T15:58:46+00:00</t>
+    <t>2024-12-18T16:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4888,7 +4888,7 @@
         <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>122</v>
@@ -14865,7 +14865,7 @@
         <v>82</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>253</v>
+        <v>155</v>
       </c>
       <c r="Y103" t="s" s="2">
         <v>666</v>
